--- a/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
+++ b/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,177 +452,465 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2430</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>660</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>840</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>210</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1860</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1020</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>630</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1020</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45495</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>640</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45502</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>1760</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45509</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45558</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>2000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45565</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1240</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45593</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B59" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -637,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,73 +947,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>5040</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>4530</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>280</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>380</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2400</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>980</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2000</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>2720</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
+++ b/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +551,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>970</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15">
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>60</v>
@@ -596,199 +596,199 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>330</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>470</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>430</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>320</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>180</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>390</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>720</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>210</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>1240</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>2430</v>
+        <v>840</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>660</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>840</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>210</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>1860</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>1020</v>
@@ -796,121 +796,105 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1020</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>340</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>640</v>
+        <v>980</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>1760</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>980</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45571.99999999999</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B59" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -990,7 +974,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1270</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8">
@@ -998,7 +982,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1320</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9">

--- a/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
+++ b/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -925,7 +926,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1095,6 +1096,943 @@
       </c>
       <c r="B22" t="n">
         <v>2720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>284</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-348.4948783530393</v>
+      </c>
+      <c r="D2" t="n">
+        <v>956.2349402613229</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>291</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-407.9809336932788</v>
+      </c>
+      <c r="D3" t="n">
+        <v>950.9666698323473</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>298</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-345.659554512278</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1019.731574512816</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>320</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-313.3346092021697</v>
+      </c>
+      <c r="D5" t="n">
+        <v>951.2861564750888</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>327</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-310.7250816535308</v>
+      </c>
+      <c r="D6" t="n">
+        <v>966.3960968112427</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>334</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-382.0909257405734</v>
+      </c>
+      <c r="D7" t="n">
+        <v>991.9548950719254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>341</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-351.0081680501394</v>
+      </c>
+      <c r="D8" t="n">
+        <v>957.0119042719376</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>383</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-251.0533597198169</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1025.607408626484</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>398</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-202.6411671693316</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1056.809400318921</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>405</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-339.4440953083469</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1124.334238844524</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>412</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-231.6671924094385</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1082.97662739009</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>419</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-297.5761251167341</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1089.097544798897</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>440</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-232.5140386986994</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1125.605856501795</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>447</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-216.306881405397</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1061.365670088623</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>462</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-173.6301284566047</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1116.041937349041</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>469</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-181.6099004250664</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1102.848531961411</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>476</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-213.3067834009479</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1145.851832563359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>497</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-129.5554213377931</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1177.855206943175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>504</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-176.0834243123007</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1156.373372564006</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>511</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-145.0456661316742</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1236.835797281022</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>518</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-117.0843148568582</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1114.194551460076</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>525</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-162.946893053724</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1164.47543835803</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>540</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-97.17033943672847</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1237.623872419402</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>547</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-140.5757021316517</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1212.029166248532</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>561</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-104.4008375870816</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1231.608228190406</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>568</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-105.4469393853772</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1260.050219481499</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>575</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-66.58688095112871</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1349.290785161501</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>582</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-82.1661224613915</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1220.448243374454</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>589</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-119.4515720362732</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1306.300237438945</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>596</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-38.53086904880346</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1281.399661772203</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>611</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-78.109585951604</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1244.088262661134</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>618</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-59.65807468633784</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1328.58783969121</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>625</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-50.70271349968225</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1255.511718689987</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>632</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-47.23501427102951</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1280.842109778268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>653</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-24.56053054777377</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1310.536924944756</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>660</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-34.48939377884423</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1314.451007031424</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>667</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-37.73490832389096</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1286.136963288536</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>674</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13.86180063624515</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1330.165250951165</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>682</v>
+      </c>
+      <c r="C40" t="n">
+        <v>39.62797581467976</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1332.059468580807</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>689</v>
+      </c>
+      <c r="C41" t="n">
+        <v>45.26245098478569</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1372.934517734351</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>696</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-4.232717506600593</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1348.373577487049</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>703</v>
+      </c>
+      <c r="C43" t="n">
+        <v>75.8533735726088</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1339.813172990242</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>710</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29.83707425028582</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1395.969464366007</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>717</v>
+      </c>
+      <c r="C45" t="n">
+        <v>50.037752458412</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1360.895825199643</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>753</v>
+      </c>
+      <c r="C46" t="n">
+        <v>86.60206177155975</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1419.089896664846</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>760</v>
+      </c>
+      <c r="C47" t="n">
+        <v>101.371814637555</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1442.008268811863</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>767</v>
+      </c>
+      <c r="C48" t="n">
+        <v>105.6623024116737</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1419.966652230784</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>774</v>
+      </c>
+      <c r="C49" t="n">
+        <v>140.7669274490036</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1416.682439930681</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>781</v>
+      </c>
+      <c r="C50" t="n">
+        <v>140.5434194897718</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1464.968746267891</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>802</v>
+      </c>
+      <c r="C51" t="n">
+        <v>125.7449949049596</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1448.689508529765</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>859</v>
+      </c>
+      <c r="C52" t="n">
+        <v>149.2546686991991</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1468.042279408369</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>866</v>
+      </c>
+      <c r="C53" t="n">
+        <v>223.5019758313537</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1511.806182722167</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>873</v>
+      </c>
+      <c r="C54" t="n">
+        <v>239.4896677450776</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1558.168739583794</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>923</v>
+      </c>
+      <c r="C55" t="n">
+        <v>227.3137867840821</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1582.230975116474</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>930</v>
+      </c>
+      <c r="C56" t="n">
+        <v>266.2910074581663</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1607.065884819638</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>958</v>
+      </c>
+      <c r="C57" t="n">
+        <v>308.9416712056562</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1639.038032411338</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>966</v>
+      </c>
+      <c r="C58" t="n">
+        <v>277.4183286963977</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1594.194744383428</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>973</v>
+      </c>
+      <c r="C59" t="n">
+        <v>314.9721488625122</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1628.301883170902</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>980</v>
+      </c>
+      <c r="C60" t="n">
+        <v>269.6968642284992</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1690.662987633418</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>987</v>
+      </c>
+      <c r="C61" t="n">
+        <v>306.9037507649243</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1666.443373791295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>994</v>
+      </c>
+      <c r="C62" t="n">
+        <v>295.6729423542998</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1676.06695568169</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C63" t="n">
+        <v>332.7975101996922</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1662.273603557462</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C64" t="n">
+        <v>380.7377752582626</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1671.375824646687</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C65" t="n">
+        <v>319.1700507665872</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1699.065285595035</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
+++ b/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
@@ -1109,7 +1109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,16 +1128,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1146,12 +1136,6 @@
       <c r="B2" t="n">
         <v>284</v>
       </c>
-      <c r="C2" t="n">
-        <v>-348.4948783530393</v>
-      </c>
-      <c r="D2" t="n">
-        <v>956.2349402613229</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1160,12 +1144,6 @@
       <c r="B3" t="n">
         <v>291</v>
       </c>
-      <c r="C3" t="n">
-        <v>-407.9809336932788</v>
-      </c>
-      <c r="D3" t="n">
-        <v>950.9666698323473</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1174,12 +1152,6 @@
       <c r="B4" t="n">
         <v>298</v>
       </c>
-      <c r="C4" t="n">
-        <v>-345.659554512278</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1019.731574512816</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1188,12 +1160,6 @@
       <c r="B5" t="n">
         <v>320</v>
       </c>
-      <c r="C5" t="n">
-        <v>-313.3346092021697</v>
-      </c>
-      <c r="D5" t="n">
-        <v>951.2861564750888</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1202,12 +1168,6 @@
       <c r="B6" t="n">
         <v>327</v>
       </c>
-      <c r="C6" t="n">
-        <v>-310.7250816535308</v>
-      </c>
-      <c r="D6" t="n">
-        <v>966.3960968112427</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1216,12 +1176,6 @@
       <c r="B7" t="n">
         <v>334</v>
       </c>
-      <c r="C7" t="n">
-        <v>-382.0909257405734</v>
-      </c>
-      <c r="D7" t="n">
-        <v>991.9548950719254</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1230,12 +1184,6 @@
       <c r="B8" t="n">
         <v>341</v>
       </c>
-      <c r="C8" t="n">
-        <v>-351.0081680501394</v>
-      </c>
-      <c r="D8" t="n">
-        <v>957.0119042719376</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1244,12 +1192,6 @@
       <c r="B9" t="n">
         <v>383</v>
       </c>
-      <c r="C9" t="n">
-        <v>-251.0533597198169</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1025.607408626484</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1258,12 +1200,6 @@
       <c r="B10" t="n">
         <v>398</v>
       </c>
-      <c r="C10" t="n">
-        <v>-202.6411671693316</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1056.809400318921</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1272,12 +1208,6 @@
       <c r="B11" t="n">
         <v>405</v>
       </c>
-      <c r="C11" t="n">
-        <v>-339.4440953083469</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1124.334238844524</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1286,12 +1216,6 @@
       <c r="B12" t="n">
         <v>412</v>
       </c>
-      <c r="C12" t="n">
-        <v>-231.6671924094385</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1082.97662739009</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1300,12 +1224,6 @@
       <c r="B13" t="n">
         <v>419</v>
       </c>
-      <c r="C13" t="n">
-        <v>-297.5761251167341</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1089.097544798897</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1314,12 +1232,6 @@
       <c r="B14" t="n">
         <v>440</v>
       </c>
-      <c r="C14" t="n">
-        <v>-232.5140386986994</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1125.605856501795</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1328,12 +1240,6 @@
       <c r="B15" t="n">
         <v>447</v>
       </c>
-      <c r="C15" t="n">
-        <v>-216.306881405397</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1061.365670088623</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1342,12 +1248,6 @@
       <c r="B16" t="n">
         <v>462</v>
       </c>
-      <c r="C16" t="n">
-        <v>-173.6301284566047</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1116.041937349041</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1356,12 +1256,6 @@
       <c r="B17" t="n">
         <v>469</v>
       </c>
-      <c r="C17" t="n">
-        <v>-181.6099004250664</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1102.848531961411</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1370,12 +1264,6 @@
       <c r="B18" t="n">
         <v>476</v>
       </c>
-      <c r="C18" t="n">
-        <v>-213.3067834009479</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1145.851832563359</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1384,12 +1272,6 @@
       <c r="B19" t="n">
         <v>497</v>
       </c>
-      <c r="C19" t="n">
-        <v>-129.5554213377931</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1177.855206943175</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1398,12 +1280,6 @@
       <c r="B20" t="n">
         <v>504</v>
       </c>
-      <c r="C20" t="n">
-        <v>-176.0834243123007</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1156.373372564006</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1412,12 +1288,6 @@
       <c r="B21" t="n">
         <v>511</v>
       </c>
-      <c r="C21" t="n">
-        <v>-145.0456661316742</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1236.835797281022</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1426,12 +1296,6 @@
       <c r="B22" t="n">
         <v>518</v>
       </c>
-      <c r="C22" t="n">
-        <v>-117.0843148568582</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1114.194551460076</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1440,12 +1304,6 @@
       <c r="B23" t="n">
         <v>525</v>
       </c>
-      <c r="C23" t="n">
-        <v>-162.946893053724</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1164.47543835803</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1454,12 +1312,6 @@
       <c r="B24" t="n">
         <v>540</v>
       </c>
-      <c r="C24" t="n">
-        <v>-97.17033943672847</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1237.623872419402</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1468,12 +1320,6 @@
       <c r="B25" t="n">
         <v>547</v>
       </c>
-      <c r="C25" t="n">
-        <v>-140.5757021316517</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1212.029166248532</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1482,12 +1328,6 @@
       <c r="B26" t="n">
         <v>561</v>
       </c>
-      <c r="C26" t="n">
-        <v>-104.4008375870816</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1231.608228190406</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1496,12 +1336,6 @@
       <c r="B27" t="n">
         <v>568</v>
       </c>
-      <c r="C27" t="n">
-        <v>-105.4469393853772</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1260.050219481499</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1510,12 +1344,6 @@
       <c r="B28" t="n">
         <v>575</v>
       </c>
-      <c r="C28" t="n">
-        <v>-66.58688095112871</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1349.290785161501</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1524,12 +1352,6 @@
       <c r="B29" t="n">
         <v>582</v>
       </c>
-      <c r="C29" t="n">
-        <v>-82.1661224613915</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1220.448243374454</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1538,12 +1360,6 @@
       <c r="B30" t="n">
         <v>589</v>
       </c>
-      <c r="C30" t="n">
-        <v>-119.4515720362732</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1306.300237438945</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1552,12 +1368,6 @@
       <c r="B31" t="n">
         <v>596</v>
       </c>
-      <c r="C31" t="n">
-        <v>-38.53086904880346</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1281.399661772203</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1566,12 +1376,6 @@
       <c r="B32" t="n">
         <v>611</v>
       </c>
-      <c r="C32" t="n">
-        <v>-78.109585951604</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1244.088262661134</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1580,12 +1384,6 @@
       <c r="B33" t="n">
         <v>618</v>
       </c>
-      <c r="C33" t="n">
-        <v>-59.65807468633784</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1328.58783969121</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1594,12 +1392,6 @@
       <c r="B34" t="n">
         <v>625</v>
       </c>
-      <c r="C34" t="n">
-        <v>-50.70271349968225</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1255.511718689987</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1608,12 +1400,6 @@
       <c r="B35" t="n">
         <v>632</v>
       </c>
-      <c r="C35" t="n">
-        <v>-47.23501427102951</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1280.842109778268</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1622,12 +1408,6 @@
       <c r="B36" t="n">
         <v>653</v>
       </c>
-      <c r="C36" t="n">
-        <v>-24.56053054777377</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1310.536924944756</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1636,12 +1416,6 @@
       <c r="B37" t="n">
         <v>660</v>
       </c>
-      <c r="C37" t="n">
-        <v>-34.48939377884423</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1314.451007031424</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1650,12 +1424,6 @@
       <c r="B38" t="n">
         <v>667</v>
       </c>
-      <c r="C38" t="n">
-        <v>-37.73490832389096</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1286.136963288536</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1664,12 +1432,6 @@
       <c r="B39" t="n">
         <v>674</v>
       </c>
-      <c r="C39" t="n">
-        <v>13.86180063624515</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1330.165250951165</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1678,12 +1440,6 @@
       <c r="B40" t="n">
         <v>682</v>
       </c>
-      <c r="C40" t="n">
-        <v>39.62797581467976</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1332.059468580807</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1692,12 +1448,6 @@
       <c r="B41" t="n">
         <v>689</v>
       </c>
-      <c r="C41" t="n">
-        <v>45.26245098478569</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1372.934517734351</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1706,12 +1456,6 @@
       <c r="B42" t="n">
         <v>696</v>
       </c>
-      <c r="C42" t="n">
-        <v>-4.232717506600593</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1348.373577487049</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1720,12 +1464,6 @@
       <c r="B43" t="n">
         <v>703</v>
       </c>
-      <c r="C43" t="n">
-        <v>75.8533735726088</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1339.813172990242</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1734,12 +1472,6 @@
       <c r="B44" t="n">
         <v>710</v>
       </c>
-      <c r="C44" t="n">
-        <v>29.83707425028582</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1395.969464366007</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1748,12 +1480,6 @@
       <c r="B45" t="n">
         <v>717</v>
       </c>
-      <c r="C45" t="n">
-        <v>50.037752458412</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1360.895825199643</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1762,12 +1488,6 @@
       <c r="B46" t="n">
         <v>753</v>
       </c>
-      <c r="C46" t="n">
-        <v>86.60206177155975</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1419.089896664846</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1776,12 +1496,6 @@
       <c r="B47" t="n">
         <v>760</v>
       </c>
-      <c r="C47" t="n">
-        <v>101.371814637555</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1442.008268811863</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1790,12 +1504,6 @@
       <c r="B48" t="n">
         <v>767</v>
       </c>
-      <c r="C48" t="n">
-        <v>105.6623024116737</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1419.966652230784</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1804,12 +1512,6 @@
       <c r="B49" t="n">
         <v>774</v>
       </c>
-      <c r="C49" t="n">
-        <v>140.7669274490036</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1416.682439930681</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1818,12 +1520,6 @@
       <c r="B50" t="n">
         <v>781</v>
       </c>
-      <c r="C50" t="n">
-        <v>140.5434194897718</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1464.968746267891</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1832,12 +1528,6 @@
       <c r="B51" t="n">
         <v>802</v>
       </c>
-      <c r="C51" t="n">
-        <v>125.7449949049596</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1448.689508529765</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1846,12 +1536,6 @@
       <c r="B52" t="n">
         <v>859</v>
       </c>
-      <c r="C52" t="n">
-        <v>149.2546686991991</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1468.042279408369</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1860,12 +1544,6 @@
       <c r="B53" t="n">
         <v>866</v>
       </c>
-      <c r="C53" t="n">
-        <v>223.5019758313537</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1511.806182722167</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1874,12 +1552,6 @@
       <c r="B54" t="n">
         <v>873</v>
       </c>
-      <c r="C54" t="n">
-        <v>239.4896677450776</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1558.168739583794</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1888,12 +1560,6 @@
       <c r="B55" t="n">
         <v>923</v>
       </c>
-      <c r="C55" t="n">
-        <v>227.3137867840821</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1582.230975116474</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1902,12 +1568,6 @@
       <c r="B56" t="n">
         <v>930</v>
       </c>
-      <c r="C56" t="n">
-        <v>266.2910074581663</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1607.065884819638</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1916,12 +1576,6 @@
       <c r="B57" t="n">
         <v>958</v>
       </c>
-      <c r="C57" t="n">
-        <v>308.9416712056562</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1639.038032411338</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1930,12 +1584,6 @@
       <c r="B58" t="n">
         <v>966</v>
       </c>
-      <c r="C58" t="n">
-        <v>277.4183286963977</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1594.194744383428</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1944,12 +1592,6 @@
       <c r="B59" t="n">
         <v>973</v>
       </c>
-      <c r="C59" t="n">
-        <v>314.9721488625122</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1628.301883170902</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1958,12 +1600,6 @@
       <c r="B60" t="n">
         <v>980</v>
       </c>
-      <c r="C60" t="n">
-        <v>269.6968642284992</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1690.662987633418</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1972,12 +1608,6 @@
       <c r="B61" t="n">
         <v>987</v>
       </c>
-      <c r="C61" t="n">
-        <v>306.9037507649243</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1666.443373791295</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1986,12 +1616,6 @@
       <c r="B62" t="n">
         <v>994</v>
       </c>
-      <c r="C62" t="n">
-        <v>295.6729423542998</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1676.06695568169</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2000,12 +1624,6 @@
       <c r="B63" t="n">
         <v>1001</v>
       </c>
-      <c r="C63" t="n">
-        <v>332.7975101996922</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1662.273603557462</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2014,12 +1632,6 @@
       <c r="B64" t="n">
         <v>1008</v>
       </c>
-      <c r="C64" t="n">
-        <v>380.7377752582626</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1671.375824646687</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2027,12 +1639,6 @@
       </c>
       <c r="B65" t="n">
         <v>1015</v>
-      </c>
-      <c r="C65" t="n">
-        <v>319.1700507665872</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1699.065285595035</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
+++ b/po_analysis_by_asin/B08B7ZX8Q2_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,6 +899,14 @@
         <v>1480</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -910,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1098,6 +1106,14 @@
         <v>2720</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1109,7 +1125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1150,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>284</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3">
@@ -1142,7 +1158,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>291</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4">
@@ -1150,7 +1166,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>298</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
@@ -1158,7 +1174,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>320</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6">
@@ -1166,7 +1182,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>327</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7">
@@ -1174,7 +1190,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>334</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8">
@@ -1182,7 +1198,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>341</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1206,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>383</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10">
@@ -1198,7 +1214,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>398</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1206,7 +1222,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>405</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
@@ -1214,7 +1230,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>412</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13">
@@ -1222,7 +1238,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>419</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -1230,7 +1246,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>440</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15">
@@ -1238,7 +1254,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>447</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16">
@@ -1246,7 +1262,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>462</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17">
@@ -1254,7 +1270,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>469</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18">
@@ -1262,7 +1278,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>476</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19">
@@ -1270,7 +1286,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>497</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20">
@@ -1278,7 +1294,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>504</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21">
@@ -1286,7 +1302,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>511</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22">
@@ -1294,7 +1310,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>518</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23">
@@ -1302,7 +1318,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>525</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -1310,7 +1326,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
@@ -1318,7 +1334,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>547</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26">
@@ -1326,7 +1342,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>561</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27">
@@ -1334,7 +1350,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>568</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28">
@@ -1342,7 +1358,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>575</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
@@ -1350,7 +1366,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>582</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30">
@@ -1358,7 +1374,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>589</v>
+        <v>829</v>
       </c>
     </row>
     <row r="31">
@@ -1366,7 +1382,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>596</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32">
@@ -1374,7 +1390,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>611</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -1382,7 +1398,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>618</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -1390,7 +1406,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>625</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35">
@@ -1398,7 +1414,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>632</v>
+        <v>983</v>
       </c>
     </row>
     <row r="36">
@@ -1406,7 +1422,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>653</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="37">
@@ -1414,7 +1430,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>660</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38">
@@ -1422,7 +1438,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>667</v>
+        <v>646</v>
       </c>
     </row>
     <row r="39">
@@ -1430,7 +1446,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40">
@@ -1438,7 +1454,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>682</v>
+        <v>892</v>
       </c>
     </row>
     <row r="41">
@@ -1446,7 +1462,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>689</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="42">
@@ -1454,7 +1470,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>696</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="43">
@@ -1462,7 +1478,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>703</v>
+        <v>821</v>
       </c>
     </row>
     <row r="44">
@@ -1470,7 +1486,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>710</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45">
@@ -1478,7 +1494,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>717</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46">
@@ -1486,7 +1502,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>753</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47">
@@ -1494,7 +1510,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>760</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48">
@@ -1502,7 +1518,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>767</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49">
@@ -1510,7 +1526,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>774</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50">
@@ -1518,7 +1534,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>781</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51">
@@ -1526,7 +1542,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>802</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52">
@@ -1534,7 +1550,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>859</v>
+        <v>886</v>
       </c>
     </row>
     <row r="53">
@@ -1542,7 +1558,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>866</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54">
@@ -1550,7 +1566,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
     </row>
     <row r="55">
@@ -1558,7 +1574,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>923</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="56">
@@ -1566,7 +1582,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>930</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="57">
@@ -1574,71 +1590,79 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>958</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>966</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>973</v>
+        <v>906</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>980</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>987</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>994</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>1001</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>1008</v>
+        <v>849</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45725.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>1015</v>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1369</v>
       </c>
     </row>
   </sheetData>
